--- a/test1/SampleCMSStudentDetail.xlsx
+++ b/test1/SampleCMSStudentDetail.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="158">
   <si>
     <t xml:space="preserve">stuId</t>
   </si>
@@ -56,19 +56,22 @@
     <t xml:space="preserve">stuMobile</t>
   </si>
   <si>
-    <t xml:space="preserve">fBatchName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fClassName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fCourseName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fDeptName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fCurrSem</t>
+    <t xml:space="preserve">fBatchId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fClassId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fCourseId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fDeptId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fcurrsem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stuStatus</t>
   </si>
   <si>
     <t xml:space="preserve">PARTH</t>
@@ -92,124 +95,115 @@
     <t xml:space="preserve">patelparth.140410107075@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">PRACHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14BECEG019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prachi.140410107076@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14BECEV28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riya140410107077@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14BECEG017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semalpatel.140410107078@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIDDHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14BECEM054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">siddhi.140410107079@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAIDEHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14BECEM061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vaidehi.140410107080@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VRAJKUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14BECEM055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vrajpatel.140410107081@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAUMILBHAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14BECEG110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paumilpatel.140410107082@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHUMIKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRAJAPATI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14BECEG004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhumika.140410107083@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BINITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14BECEG077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">binita.140410107084@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHRUMIL</t>
+  </si>
+  <si>
     <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLASS-I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comp.Engg.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRACHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14BECEG019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prachi.140410107076@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14BECEV28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">riya140410107077@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEMAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14BECEG017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">semalpatel.140410107078@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIDDHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14BECEM054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">siddhi.140410107079@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAIDEHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14BECEM061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vaidehi.140410107080@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VRAJKUMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14BECEM055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vrajpatel.140410107081@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAUMILBHAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14BECEG110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paumilpatel.140410107082@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BHUMIKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRAJAPATI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14BECEG004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bhumika.140410107083@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BINITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14BECEG077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">binita.140410107084@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHRUMIL</t>
   </si>
   <si>
     <t xml:space="preserve">HET</t>
@@ -660,10 +654,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P1048576"/>
+  <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -734,6 +728,9 @@
       <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -744,46 +741,49 @@
         <v>Mr.</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>170710107075</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="3" t="n">
         <v>9574421069</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>26</v>
+      <c r="L2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,46 +795,49 @@
         <v>Ms.</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>170710107076</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K3" s="3" t="n">
         <v>8511185939</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>26</v>
+      <c r="L3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -846,46 +849,49 @@
         <v>Ms.</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>170710107077</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K4" s="3" t="n">
         <v>8469582199</v>
       </c>
-      <c r="L4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>26</v>
+      <c r="L4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -897,46 +903,49 @@
         <v>Mr.</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>170710107078</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K5" s="3" t="n">
         <v>9426625662</v>
       </c>
-      <c r="L5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>26</v>
+      <c r="L5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,46 +957,49 @@
         <v>Ms.</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I6" s="5" t="n">
         <v>170710107079</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K6" s="3" t="n">
         <v>7041606679</v>
       </c>
-      <c r="L6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>26</v>
+      <c r="L6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,46 +1011,49 @@
         <v>Ms.</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>170710107080</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K7" s="3" t="n">
         <v>7046449857</v>
       </c>
-      <c r="L7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>26</v>
+      <c r="L7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1050,46 +1065,49 @@
         <v>Mr.</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>170710107081</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K8" s="3" t="n">
         <v>7622815525</v>
       </c>
-      <c r="L8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>26</v>
+      <c r="L8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,46 +1119,49 @@
         <v>Mr.</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I9" s="5" t="n">
         <v>170710107082</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K9" s="3" t="n">
         <v>8128983156</v>
       </c>
-      <c r="L9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>26</v>
+      <c r="L9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,46 +1173,49 @@
         <v>Ms.</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>170710107083</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K10" s="3" t="n">
         <v>9428200189</v>
       </c>
-      <c r="L10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>26</v>
+      <c r="L10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1203,46 +1227,49 @@
         <v>Ms.</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>170710107084</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K11" s="3" t="n">
         <v>9173616991</v>
       </c>
-      <c r="L11" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>26</v>
+      <c r="L11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1387,7 +1414,7 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="I2:I11 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1399,742 +1426,742 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="C10" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>74</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>91</v>
-      </c>
       <c r="C25" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>128</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="D53" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/test1/SampleCMSStudentDetail.xlsx
+++ b/test1/SampleCMSStudentDetail.xlsx
@@ -590,7 +590,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -603,7 +603,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -611,7 +611,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -656,8 +660,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1414,7 +1418,7 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A2:Q11 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1425,7 +1429,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
@@ -1436,7 +1440,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -1447,7 +1451,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -1458,7 +1462,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -1469,7 +1473,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -1480,7 +1484,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -1491,7 +1495,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
@@ -1502,7 +1506,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -1513,7 +1517,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
@@ -1524,7 +1528,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="0" t="s">
@@ -1535,7 +1539,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="0" t="s">
@@ -1546,7 +1550,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="0" t="s">
@@ -1557,7 +1561,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
@@ -1568,7 +1572,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="0" t="s">
@@ -1579,7 +1583,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -1590,7 +1594,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="0" t="s">
@@ -1601,7 +1605,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="0" t="s">
@@ -1612,7 +1616,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="0" t="s">
@@ -1623,7 +1627,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B19" s="0" t="s">
@@ -1634,7 +1638,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B20" s="0" t="s">
@@ -1645,7 +1649,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B21" s="0" t="s">
@@ -1656,7 +1660,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -1667,7 +1671,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -1678,7 +1682,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B24" s="0" t="s">
@@ -1689,7 +1693,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B25" s="0" t="s">
@@ -1700,7 +1704,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B26" s="0" t="s">
@@ -1711,7 +1715,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B27" s="0" t="s">
@@ -1722,7 +1726,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B28" s="0" t="s">
@@ -1733,7 +1737,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B29" s="0" t="s">
@@ -1744,7 +1748,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B30" s="0" t="s">
@@ -1755,7 +1759,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B31" s="0" t="s">
@@ -1766,7 +1770,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B32" s="0" t="s">
@@ -1777,7 +1781,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B33" s="0" t="s">
@@ -1788,7 +1792,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B34" s="0" t="s">
@@ -1799,7 +1803,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B35" s="0" t="s">
@@ -1810,7 +1814,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B36" s="0" t="s">
@@ -1821,7 +1825,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B37" s="0" t="s">
@@ -1832,7 +1836,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="0" t="s">
@@ -1843,7 +1847,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B39" s="0" t="s">
@@ -1854,7 +1858,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B40" s="0" t="s">
@@ -1865,7 +1869,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B41" s="0" t="s">
@@ -1876,7 +1880,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
@@ -1887,7 +1891,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B43" s="0" t="s">
@@ -1898,7 +1902,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B44" s="0" t="s">
@@ -1909,7 +1913,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B45" s="0" t="s">
@@ -1920,7 +1924,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B46" s="0" t="s">
@@ -1931,7 +1935,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B47" s="0" t="s">
@@ -1942,7 +1946,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B48" s="0" t="s">
@@ -1953,7 +1957,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B49" s="0" t="s">
@@ -1964,7 +1968,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B50" s="0" t="s">
@@ -1975,7 +1979,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B51" s="0" t="s">
@@ -1986,7 +1990,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B52" s="0" t="s">
@@ -1997,7 +2001,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="6" t="s">
         <v>132</v>
       </c>
       <c r="B53" s="0" t="s">
@@ -2011,7 +2015,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="8" t="s">
         <v>119</v>
       </c>
       <c r="B54" s="0" t="s">
@@ -2022,7 +2026,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="8" t="s">
         <v>137</v>
       </c>
       <c r="B55" s="0" t="s">
@@ -2033,7 +2037,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="0" t="s">
@@ -2044,7 +2048,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="8" t="s">
         <v>140</v>
       </c>
       <c r="B57" s="0" t="s">
@@ -2055,7 +2059,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="8" t="s">
         <v>142</v>
       </c>
       <c r="B58" s="0" t="s">
@@ -2066,7 +2070,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B59" s="0" t="s">
@@ -2077,7 +2081,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="9" t="s">
         <v>87</v>
       </c>
       <c r="B60" s="0" t="s">
@@ -2088,7 +2092,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B61" s="0" t="s">
@@ -2099,7 +2103,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="8" t="s">
         <v>113</v>
       </c>
       <c r="B62" s="0" t="s">
@@ -2110,7 +2114,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="8" t="s">
         <v>115</v>
       </c>
       <c r="B63" s="0" t="s">
@@ -2121,7 +2125,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="8" t="s">
         <v>150</v>
       </c>
       <c r="B64" s="0" t="s">
@@ -2132,7 +2136,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="8" t="s">
         <v>152</v>
       </c>
       <c r="B65" s="0" t="s">
@@ -2143,7 +2147,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="8" t="s">
         <v>154</v>
       </c>
       <c r="B66" s="0" t="s">
@@ -2154,7 +2158,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B67" s="0" t="s">
